--- a/data/scheduling_DNN/predict/0.1/result16.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result16.xlsx
@@ -570,10 +570,10 @@
         <v>0.8674969673156738</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.49809730052948</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1713167279958725</v>
+        <v>0.1364561170339584</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8562660217285156</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.9231323003768921</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03912405297160149</v>
+        <v>0.004471099004149437</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8568980693817139</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.576065719127655</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0151614286005497</v>
+        <v>0.07886680960655212</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9078249931335449</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5302993655204773</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03074242174625397</v>
+        <v>0.1425255984067917</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8452999591827393</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.9076811671257019</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08526114374399185</v>
+        <v>0.003891415195539594</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8480839729309082</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.484635591506958</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1458706557750702</v>
+        <v>0.1320947259664536</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8433830738067627</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5305828452110291</v>
       </c>
       <c r="W8" t="n">
-        <v>0.166282594203949</v>
+        <v>0.09784398227930069</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.898231029510498</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5751868486404419</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1107636764645576</v>
+        <v>0.1043575406074524</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8457989692687988</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.5407422780990601</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05049179121851921</v>
+        <v>0.09305958449840546</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.853477954864502</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.5026900172233582</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1223516091704369</v>
+        <v>0.123052179813385</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8590350151062012</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9839279055595398</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1275159120559692</v>
+        <v>0.01559823378920555</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>1.215978860855103</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.875341534614563</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3493791818618774</v>
+        <v>0.1160337850451469</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8441088199615479</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4731011986732483</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1663527488708496</v>
+        <v>0.1376466602087021</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.842289924621582</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5185237526893616</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0003669789293780923</v>
+        <v>0.104824535548687</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8541069030761719</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.8628742694854736</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1566757708787918</v>
+        <v>7.686671597184613e-05</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9034659862518311</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.469283401966095</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2755448818206787</v>
+        <v>0.1885145157575607</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8429319858551025</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4849159121513367</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1148613542318344</v>
+        <v>0.1281755119562149</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8565020561218262</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4707881808280945</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1261268556118011</v>
+        <v>0.148775190114975</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8526060581207275</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.5440150499343872</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09219515323638916</v>
+        <v>0.095228411257267</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9032678604125977</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4775501489639282</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1983171552419662</v>
+        <v>0.1812355667352676</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5156710147857666</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4739976525306702</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01884941197931767</v>
+        <v>0.001736669102683663</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.513916015625</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4885215163230896</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0002331035648239776</v>
+        <v>0.0006448805797845125</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5105381011962891</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5246524214744568</v>
       </c>
       <c r="W24" t="n">
-        <v>4.850349432672374e-05</v>
+        <v>0.0001992140314541757</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5091638565063477</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5396426320075989</v>
       </c>
       <c r="W25" t="n">
-        <v>0.002006120048463345</v>
+        <v>0.0009289557347074151</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.568619966506958</v>
       </c>
       <c r="V26" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4886106252670288</v>
       </c>
       <c r="W26" t="n">
-        <v>0.007719979621469975</v>
+        <v>0.006401494611054659</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5095891952514648</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.9149089455604553</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01192531734704971</v>
+        <v>0.1642840951681137</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5100710391998291</v>
       </c>
       <c r="V28" t="n">
-        <v>0.504918098449707</v>
+        <v>0.469121515750885</v>
       </c>
       <c r="W28" t="n">
-        <v>2.655279786267783e-05</v>
+        <v>0.001676863525062799</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5070860385894775</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4675793647766113</v>
       </c>
       <c r="W29" t="n">
-        <v>0.002750952495262027</v>
+        <v>0.001560777309350669</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5050859451293945</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.5745355486869812</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01298514939844608</v>
+        <v>0.004823247436434031</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5112519264221191</v>
       </c>
       <c r="V31" t="n">
-        <v>0.624763011932373</v>
+        <v>0.5765870809555054</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01288476679474115</v>
+        <v>0.004268682561814785</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.512031078338623</v>
       </c>
       <c r="V32" t="n">
-        <v>0.473930835723877</v>
+        <v>0.9416654706001282</v>
       </c>
       <c r="W32" t="n">
-        <v>0.00145162851549685</v>
+        <v>0.1845857053995132</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5131039619445801</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.5754231810569763</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001534793060272932</v>
+        <v>0.003883684985339642</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5036020278930664</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.9845510125160217</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01023697387427092</v>
+        <v>0.2313119322061539</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5099740028381348</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.558244526386261</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02268031053245068</v>
+        <v>0.002330043353140354</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5108850002288818</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4700437784194946</v>
       </c>
       <c r="W36" t="n">
-        <v>0.003230833215638995</v>
+        <v>0.001668005366809666</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5586268901824951</v>
       </c>
       <c r="V37" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4788634181022644</v>
       </c>
       <c r="W37" t="n">
-        <v>9.139339090324938e-05</v>
+        <v>0.006362211424857378</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5077240467071533</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.5304850935935974</v>
       </c>
       <c r="W38" t="n">
-        <v>0.05700445547699928</v>
+        <v>0.0005180652369745076</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5048930644989014</v>
       </c>
       <c r="V39" t="n">
-        <v>0.435836523771286</v>
+        <v>0.5304408073425293</v>
       </c>
       <c r="W39" t="n">
-        <v>0.004768806044012308</v>
+        <v>0.0006526871584355831</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5101690292358398</v>
       </c>
       <c r="V40" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.4691605567932129</v>
       </c>
       <c r="W40" t="n">
-        <v>0.09120107442140579</v>
+        <v>0.001681694760918617</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5025570392608643</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.5684238076210022</v>
       </c>
       <c r="W41" t="n">
-        <v>0.09961286187171936</v>
+        <v>0.004338431172072887</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.384148120880127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.4961865544319153</v>
       </c>
       <c r="W42" t="n">
-        <v>0.008238652721047401</v>
+        <v>0.01255261059850454</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4059560298919678</v>
       </c>
       <c r="V43" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4947366118431091</v>
       </c>
       <c r="W43" t="n">
-        <v>0.004891862161457539</v>
+        <v>0.007881991565227509</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3791239261627197</v>
       </c>
       <c r="V44" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.8822237253189087</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1279621571302414</v>
+        <v>0.2531093955039978</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3802318572998047</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.8912267684936523</v>
       </c>
       <c r="W45" t="n">
-        <v>0.003112511476501822</v>
+        <v>0.2611157894134521</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.383242130279541</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4745404124259949</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01071876753121614</v>
+        <v>0.008335376158356667</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3846879005432129</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4876697659492493</v>
       </c>
       <c r="W47" t="n">
-        <v>0.001272541121579707</v>
+        <v>0.01060526445508003</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3805088996887207</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.9481263756752014</v>
       </c>
       <c r="W48" t="n">
-        <v>2.257995674881386e-06</v>
+        <v>0.322189599275589</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4383540153503418</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.8827608823776245</v>
       </c>
       <c r="W49" t="n">
-        <v>0.003927228972315788</v>
+        <v>0.1974974572658539</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3844389915466309</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4776272773742676</v>
       </c>
       <c r="W50" t="n">
-        <v>0.05532220378518105</v>
+        <v>0.008684056811034679</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.384894847869873</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4850141406059265</v>
       </c>
       <c r="W51" t="n">
-        <v>0.006550218909978867</v>
+        <v>0.0100238723680377</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3854258060455322</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5752652883529663</v>
       </c>
       <c r="W52" t="n">
-        <v>0.03367029875516891</v>
+        <v>0.03603902831673622</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3767361640930176</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4877417087554932</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07834805548191071</v>
+        <v>0.01232223119586706</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3849499225616455</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.5745005011558533</v>
       </c>
       <c r="W54" t="n">
-        <v>0.005301182623952627</v>
+        <v>0.03592942282557487</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3830370903015137</v>
       </c>
       <c r="V55" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5059888958930969</v>
       </c>
       <c r="W55" t="n">
-        <v>0.008109240792691708</v>
+        <v>0.01511714607477188</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3842628002166748</v>
       </c>
       <c r="V56" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.4729140400886536</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1162171587347984</v>
+        <v>0.007859041914343834</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3873310089111328</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.9488785862922668</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03274028748273849</v>
+        <v>0.3153356909751892</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3795309066772461</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.9604806303977966</v>
       </c>
       <c r="W58" t="n">
-        <v>0.06973109394311905</v>
+        <v>0.3375025689601898</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3844850063323975</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.8755807280540466</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03494765982031822</v>
+        <v>0.2411750108003616</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3758318424224854</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.9143321514129639</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0002035157522186637</v>
+        <v>0.2899825870990753</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3857119083404541</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.9393972754478455</v>
       </c>
       <c r="W61" t="n">
-        <v>0.007825128734111786</v>
+        <v>0.3065674901008606</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8905909061431885</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.9249510765075684</v>
       </c>
       <c r="W62" t="n">
-        <v>0.05384142324328423</v>
+        <v>0.001180621329694986</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8728399276733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.4800052642822266</v>
       </c>
       <c r="W63" t="n">
-        <v>0.06557954847812653</v>
+        <v>0.1543190777301788</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8617570400238037</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.8823635578155518</v>
       </c>
       <c r="W64" t="n">
-        <v>0.05562656000256538</v>
+        <v>0.0004246285825502127</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8418221473693848</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.4822760820388794</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1468900144100189</v>
+        <v>0.1292733699083328</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8886041641235352</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4775554537773132</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1848790645599365</v>
+        <v>0.1689610481262207</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8514788150787354</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4855234026908875</v>
       </c>
       <c r="W67" t="n">
-        <v>0.05104666948318481</v>
+        <v>0.1339233666658401</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8402788639068604</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4947668313980103</v>
       </c>
       <c r="W68" t="n">
-        <v>0.0005659869057126343</v>
+        <v>0.1193785667419434</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8573660850524902</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.8742370009422302</v>
       </c>
       <c r="W69" t="n">
-        <v>0.146441176533699</v>
+        <v>0.0002846278075594455</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8827309608459473</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.4843829274177551</v>
       </c>
       <c r="W70" t="n">
-        <v>0.06839727610349655</v>
+        <v>0.1586811542510986</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8608570098876953</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4706078767776489</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1804802417755127</v>
+        <v>0.1522943824529648</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8551228046417236</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4962913990020752</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1651626229286194</v>
+        <v>0.1287599802017212</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8558399677276611</v>
       </c>
       <c r="V73" t="n">
-        <v>0.57613205909729</v>
+        <v>0.9101873636245728</v>
       </c>
       <c r="W73" t="n">
-        <v>0.07823651283979416</v>
+        <v>0.002953639486804605</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8744540214538574</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.9453549385070801</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1735235750675201</v>
+        <v>0.005026940256357193</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8589508533477783</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5028004050254822</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1258767247200012</v>
+        <v>0.1268431395292282</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8385260105133057</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.5753813982009888</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1620049029588699</v>
+        <v>0.06924508512020111</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8394889831542969</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5443238615989685</v>
       </c>
       <c r="W77" t="n">
-        <v>0.04955701529979706</v>
+        <v>0.08712244778871536</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9030349254608154</v>
       </c>
       <c r="V78" t="n">
-        <v>0.630542516708374</v>
+        <v>0.5306362509727478</v>
       </c>
       <c r="W78" t="n">
-        <v>0.07425211369991302</v>
+        <v>0.1386807709932327</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8696699142456055</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4802989959716797</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1644652485847473</v>
+        <v>0.1516097187995911</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8499338626861572</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.948644757270813</v>
       </c>
       <c r="W80" t="n">
-        <v>0.221925362944603</v>
+        <v>0.009743840433657169</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8476300239562988</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.5452158451080322</v>
       </c>
       <c r="W81" t="n">
-        <v>0.03041805326938629</v>
+        <v>0.09145433455705643</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5661230087280273</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5934351086616516</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0001977478677872568</v>
+        <v>0.0007459507905878127</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.534649133682251</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.5305892825126648</v>
       </c>
       <c r="W83" t="n">
-        <v>0.006461173295974731</v>
+        <v>1.648239231144544e-05</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5144460201263428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.9104279279708862</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01105243340134621</v>
+        <v>0.1568016707897186</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.506882905960083</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.9468366503715515</v>
       </c>
       <c r="W85" t="n">
-        <v>0.003491947194561362</v>
+        <v>0.1935593038797379</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5128889083862305</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.8820266723632812</v>
       </c>
       <c r="W86" t="n">
-        <v>0.007746633142232895</v>
+        <v>0.1362626850605011</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5611529350280762</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.9439458250999451</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01060137990862131</v>
+        <v>0.1465303897857666</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5147559642791748</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.885296106338501</v>
       </c>
       <c r="W88" t="n">
-        <v>0.003729191143065691</v>
+        <v>0.1372999995946884</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5145590305328369</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.5708047747612</v>
       </c>
       <c r="W89" t="n">
-        <v>0.005232973955571651</v>
+        <v>0.003163583809509873</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5127341747283936</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.883165717124939</v>
       </c>
       <c r="W90" t="n">
-        <v>0.002178669441491365</v>
+        <v>0.1372195333242416</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5190918445587158</v>
       </c>
       <c r="V91" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4684649705886841</v>
       </c>
       <c r="W91" t="n">
-        <v>0.001070292200893164</v>
+        <v>0.002563080284744501</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5130519866943359</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.5307538509368896</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01259957440197468</v>
+        <v>0.0003133559948764741</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5114860534667969</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4701418280601501</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001277191215194762</v>
+        <v>0.00170934502966702</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5136439800262451</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.4884670972824097</v>
       </c>
       <c r="W94" t="n">
-        <v>0.003043284872546792</v>
+        <v>0.000633875431958586</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5163388252258301</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5306607484817505</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01979796029627323</v>
+        <v>0.00020511748152785</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5185210704803467</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.9240375757217407</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01050042640417814</v>
+        <v>0.1644436419010162</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5084989070892334</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.4946465492248535</v>
       </c>
       <c r="W97" t="n">
-        <v>1.774514566932339e-05</v>
+        <v>0.0001918878115247935</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5737850666046143</v>
       </c>
       <c r="V98" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.4789928197860718</v>
       </c>
       <c r="W98" t="n">
-        <v>0.02282733097672462</v>
+        <v>0.008985569700598717</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5176172256469727</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5142830610275269</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01355889812111855</v>
+        <v>1.111665369535331e-05</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5177130699157715</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4676727056503296</v>
       </c>
       <c r="W100" t="n">
-        <v>0.003609179286286235</v>
+        <v>0.002504038158804178</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5123000144958496</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.8839412331581116</v>
       </c>
       <c r="W101" t="n">
-        <v>0.004082173109054565</v>
+        <v>0.1381171941757202</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3948140144348145</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5263058543205261</v>
       </c>
       <c r="W102" t="n">
-        <v>0.05257423594594002</v>
+        <v>0.01729010418057442</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3938770294189453</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4735599756240845</v>
       </c>
       <c r="W103" t="n">
-        <v>0.05294789001345634</v>
+        <v>0.006349371746182442</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4296739101409912</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4690539836883545</v>
       </c>
       <c r="W104" t="n">
-        <v>4.024735244456679e-05</v>
+        <v>0.001550790155306458</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3969409465789795</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4825030565261841</v>
       </c>
       <c r="W105" t="n">
-        <v>0.06189914792776108</v>
+        <v>0.007320874836295843</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3835301399230957</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4777296185493469</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1871009021997452</v>
+        <v>0.008873541839420795</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.8927027583122253</v>
       </c>
       <c r="W107" t="n">
-        <v>0.03501959145069122</v>
+        <v>0.2568277418613434</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3881969451904297</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.541144847869873</v>
       </c>
       <c r="W108" t="n">
-        <v>0.07218053936958313</v>
+        <v>0.02339306101202965</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3860578536987305</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5110561847686768</v>
       </c>
       <c r="W109" t="n">
-        <v>0.002496679313480854</v>
+        <v>0.01562458276748657</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4418110847473145</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4971136450767517</v>
       </c>
       <c r="W110" t="n">
-        <v>0.003593229921534657</v>
+        <v>0.003058373229578137</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3884329795837402</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.8793688416481018</v>
       </c>
       <c r="W111" t="n">
-        <v>0.00448214216157794</v>
+        <v>0.2410180270671844</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3950531482696533</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9433224201202393</v>
       </c>
       <c r="W112" t="n">
-        <v>0.05018197000026703</v>
+        <v>0.3005991876125336</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3894131183624268</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.9020102620124817</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06385046988725662</v>
+        <v>0.2627558410167694</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3892350196838379</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.9872903823852539</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02968227118253708</v>
+        <v>0.3576702177524567</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3900489807128906</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.8829323649406433</v>
       </c>
       <c r="W115" t="n">
-        <v>0.02707543037831783</v>
+        <v>0.2429340332746506</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3895061016082764</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4852115511894226</v>
       </c>
       <c r="W116" t="n">
-        <v>0.02722844853997231</v>
+        <v>0.009159533306956291</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3837640285491943</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5585570335388184</v>
       </c>
       <c r="W117" t="n">
-        <v>0.005105072166770697</v>
+        <v>0.03055259399116039</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4187958240509033</v>
       </c>
       <c r="V118" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4703003764152527</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1022061854600906</v>
+        <v>0.002652718918398023</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3829190731048584</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.4893877506256104</v>
       </c>
       <c r="W119" t="n">
-        <v>0.07596558332443237</v>
+        <v>0.01133557967841625</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3954489231109619</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4920800924301147</v>
       </c>
       <c r="W120" t="n">
-        <v>0.05240714177489281</v>
+        <v>0.009337582625448704</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3956220149993896</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4819954633712769</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01235091034322977</v>
+        <v>0.007460372522473335</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9516279697418213</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5131319761276245</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1961731314659119</v>
+        <v>0.1922787427902222</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9290480613708496</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9099655151367188</v>
       </c>
       <c r="W123" t="n">
-        <v>0.09470682591199875</v>
+        <v>0.0003641435760073364</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8818929195404053</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5760876536369324</v>
       </c>
       <c r="W124" t="n">
-        <v>0.13382588326931</v>
+        <v>0.09351686388254166</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.866441011428833</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4813397526741028</v>
       </c>
       <c r="W125" t="n">
-        <v>0.05883212760090828</v>
+        <v>0.1483029723167419</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9396529197692871</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.9336031079292297</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2324229180812836</v>
+        <v>3.660022412077524e-05</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8601741790771484</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.5752254724502563</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1268997043371201</v>
+        <v>0.08119576424360275</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8705580234527588</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4912533760070801</v>
       </c>
       <c r="W128" t="n">
-        <v>0.0589018352329731</v>
+        <v>0.1438720226287842</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8527100086212158</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.9252622127532959</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1417766511440277</v>
+        <v>0.00526382215321064</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9323620796203613</v>
       </c>
       <c r="V130" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5310409069061279</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2079210579395294</v>
+        <v>0.1610586792230606</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8620100021362305</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.5341839194297791</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1525866389274597</v>
+        <v>0.1074699386954308</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8681838512420654</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.4893934726715088</v>
       </c>
       <c r="W132" t="n">
-        <v>0.08965476602315903</v>
+        <v>0.1434821486473083</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8797750473022461</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.8902376294136047</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1039442792534828</v>
+        <v>0.000109465625428129</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9095540046691895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5461711883544922</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1926209032535553</v>
+        <v>0.1320470720529556</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8665180206298828</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.8861404061317444</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1853259652853012</v>
+        <v>0.0003850380016956478</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8528680801391602</v>
       </c>
       <c r="V136" t="n">
-        <v>0.569115161895752</v>
+        <v>0.8844884037971497</v>
       </c>
       <c r="W136" t="n">
-        <v>0.08051571995019913</v>
+        <v>0.000999844865873456</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8640589714050293</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.8852489590644836</v>
       </c>
       <c r="W137" t="n">
-        <v>0.06729120761156082</v>
+        <v>0.0004490155843086541</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9172878265380859</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.8654138445854187</v>
       </c>
       <c r="W138" t="n">
-        <v>0.210178330540657</v>
+        <v>0.002690909896045923</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8497669696807861</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.511773407459259</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05023133382201195</v>
+        <v>0.1142396479845047</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8870780467987061</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.5310627818107605</v>
       </c>
       <c r="W140" t="n">
-        <v>0.06913653016090393</v>
+        <v>0.1267468631267548</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8524549007415771</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4733095169067383</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1376935690641403</v>
+        <v>0.1437512189149857</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5773119926452637</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5306023955345154</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01530994009226561</v>
+        <v>0.002181786578148603</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5194869041442871</v>
       </c>
       <c r="V143" t="n">
-        <v>0.43533855676651</v>
+        <v>1.007026553153992</v>
       </c>
       <c r="W143" t="n">
-        <v>0.007080944254994392</v>
+        <v>0.2376949042081833</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5179729461669922</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5430057048797607</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01131294760853052</v>
+        <v>0.0006266389973461628</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5146110057830811</v>
       </c>
       <c r="V145" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4795775413513184</v>
       </c>
       <c r="W145" t="n">
-        <v>0.08848065137863159</v>
+        <v>0.001227343687787652</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5176818370819092</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.5428346991539001</v>
       </c>
       <c r="W146" t="n">
-        <v>0.002956438809633255</v>
+        <v>0.0006326664588414133</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5413899421691895</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.8816994428634644</v>
       </c>
       <c r="W147" t="n">
-        <v>0.007668867241591215</v>
+        <v>0.1158105581998825</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5270290374755859</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.9151834845542908</v>
       </c>
       <c r="W148" t="n">
-        <v>0.009430590085685253</v>
+        <v>0.1506638675928116</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5142581462860107</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4696289896965027</v>
       </c>
       <c r="W149" t="n">
-        <v>0.003203368280082941</v>
+        <v>0.001991761615499854</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5190191268920898</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.5184440612792969</v>
       </c>
       <c r="W150" t="n">
-        <v>0.001060517854057252</v>
+        <v>3.307004590169527e-07</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5171880722045898</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.4824324250221252</v>
       </c>
       <c r="W151" t="n">
-        <v>0.00195751222781837</v>
+        <v>0.001207955065183342</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5158429145812988</v>
       </c>
       <c r="V152" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4683659672737122</v>
       </c>
       <c r="W152" t="n">
-        <v>0.002088578417897224</v>
+        <v>0.002254060469567776</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5384039878845215</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.8917819857597351</v>
       </c>
       <c r="W153" t="n">
-        <v>0.009287362918257713</v>
+        <v>0.124876007437706</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5166900157928467</v>
       </c>
       <c r="V154" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5305328369140625</v>
       </c>
       <c r="W154" t="n">
-        <v>0.00120582222007215</v>
+        <v>0.0001916236942633986</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195591449737549</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4846718907356262</v>
       </c>
       <c r="W155" t="n">
-        <v>0.003731586737558246</v>
+        <v>0.001217120559886098</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5104279518127441</v>
       </c>
       <c r="V156" t="n">
-        <v>0.390147477388382</v>
+        <v>0.908177375793457</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01446739211678505</v>
+        <v>0.1582046002149582</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5180521011352539</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.4709335565567017</v>
       </c>
       <c r="W157" t="n">
-        <v>0.006729444023221731</v>
+        <v>0.002220157301053405</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5773909091949463</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4925225973129272</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0006264898111112416</v>
+        <v>0.007202630396932364</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5174031257629395</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.8835089802742004</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01919033378362656</v>
+        <v>0.1340335011482239</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.518618106842041</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.8826237916946411</v>
       </c>
       <c r="W160" t="n">
-        <v>0.001121560228057206</v>
+        <v>0.1325001418590546</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.518690824508667</v>
       </c>
       <c r="V161" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4898144602775574</v>
       </c>
       <c r="W161" t="n">
-        <v>0.08868331462144852</v>
+        <v>0.0008338444167748094</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3845269680023193</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.8680895566940308</v>
       </c>
       <c r="W162" t="n">
-        <v>0.00786229781806469</v>
+        <v>0.2338327765464783</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3889369964599609</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.8851677775382996</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01260142121464014</v>
+        <v>0.2462449818849564</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4397609233856201</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4684223532676697</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0329899825155735</v>
+        <v>0.0008214775589294732</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3923981189727783</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.8901817202568054</v>
       </c>
       <c r="W165" t="n">
-        <v>0.06792297214269638</v>
+        <v>0.2477885186672211</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3857560157775879</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.8857697248458862</v>
       </c>
       <c r="W166" t="n">
-        <v>1.176843670691596e-05</v>
+        <v>0.2500137090682983</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.390949010848999</v>
       </c>
       <c r="V167" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4856735467910767</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1811367273330688</v>
+        <v>0.008972737938165665</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4511659145355225</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4844196438789368</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0003839066775981337</v>
+        <v>0.001105810515582561</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3905680179595947</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4920753836631775</v>
       </c>
       <c r="W169" t="n">
-        <v>0.02635173499584198</v>
+        <v>0.01030374504625797</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4520089626312256</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.9021576642990112</v>
       </c>
       <c r="W170" t="n">
-        <v>0.001953366212546825</v>
+        <v>0.2026338577270508</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3906660079956055</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5461643934249878</v>
       </c>
       <c r="W171" t="n">
-        <v>0.005675568245351315</v>
+        <v>0.02417974732816219</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3994870185852051</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5090636610984802</v>
       </c>
       <c r="W172" t="n">
-        <v>0.001339651178568602</v>
+        <v>0.01200704090297222</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V173" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9250496029853821</v>
       </c>
       <c r="W173" t="n">
-        <v>0.1798621565103531</v>
+        <v>0.2812939286231995</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4131858348846436</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5392560362815857</v>
       </c>
       <c r="W174" t="n">
-        <v>0.04433690384030342</v>
+        <v>0.01589369587600231</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3919909000396729</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.9132347702980042</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01204522699117661</v>
+        <v>0.2716951668262482</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3951170444488525</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.510560929775238</v>
       </c>
       <c r="W176" t="n">
-        <v>0.08639697730541229</v>
+        <v>0.01332729030400515</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4014451503753662</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.9688366651535034</v>
       </c>
       <c r="W177" t="n">
-        <v>0.05869064852595329</v>
+        <v>0.3219331204891205</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3903319835662842</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.9135763049125671</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02571773156523705</v>
+        <v>0.2737846076488495</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3951280117034912</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.8855456709861755</v>
       </c>
       <c r="W179" t="n">
-        <v>0.05240217596292496</v>
+        <v>0.2405094802379608</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3934211730957031</v>
       </c>
       <c r="V180" t="n">
-        <v>0.551541268825531</v>
+        <v>0.8909114599227905</v>
       </c>
       <c r="W180" t="n">
-        <v>0.02500196546316147</v>
+        <v>0.2474965900182724</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4087798595428467</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.4732927680015564</v>
       </c>
       <c r="W181" t="n">
-        <v>0.04504064843058586</v>
+        <v>0.004161915276199579</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9310531616210938</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.904060959815979</v>
       </c>
       <c r="W182" t="n">
-        <v>0.18210269510746</v>
+        <v>0.000728578947018832</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9001381397247314</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9001066088676453</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2157178670167923</v>
+        <v>9.94194948589211e-10</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8736839294433594</v>
       </c>
       <c r="V184" t="n">
-        <v>0.436027318239212</v>
+        <v>0.9180319905281067</v>
       </c>
       <c r="W184" t="n">
-        <v>0.191543310880661</v>
+        <v>0.001966750482097268</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8622119426727295</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5912092328071594</v>
       </c>
       <c r="W185" t="n">
-        <v>0.08187109977006912</v>
+        <v>0.07344246655702591</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9206070899963379</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4688847064971924</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2180699706077576</v>
+        <v>0.2040531188249588</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8726701736450195</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5109774470329285</v>
       </c>
       <c r="W187" t="n">
-        <v>0.04658432304859161</v>
+        <v>0.130821630358696</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8600640296936035</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5339550971984863</v>
       </c>
       <c r="W188" t="n">
-        <v>0.08449024707078934</v>
+        <v>0.1063470393419266</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8587009906768799</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4947279691696167</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1635387092828751</v>
+        <v>0.1324763596057892</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9100961685180664</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4892065525054932</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1272762715816498</v>
+        <v>0.1771480739116669</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8680498600006104</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4776644706726074</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1023155525326729</v>
+        <v>0.1524007469415665</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8641750812530518</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.9953338503837585</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1652819216251373</v>
+        <v>0.01720262318849564</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8645908832550049</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5389175415039062</v>
       </c>
       <c r="W193" t="n">
-        <v>0.05918356031179428</v>
+        <v>0.1060631275177002</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.918956995010376</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.9411752820014954</v>
       </c>
       <c r="W194" t="n">
-        <v>0.06857060641050339</v>
+        <v>0.0004936523037031293</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8616139888763428</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4821123480796814</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1562130451202393</v>
+        <v>0.1440214961767197</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8604018688201904</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.9469606280326843</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1134690791368484</v>
+        <v>0.007492418866604567</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8492429256439209</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5305213928222656</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1707525551319122</v>
+        <v>0.1015834137797356</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.918503999710083</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5306074023246765</v>
       </c>
       <c r="W198" t="n">
-        <v>0.07372254133224487</v>
+        <v>0.1504637748003006</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8714280128479004</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5311363339424133</v>
       </c>
       <c r="W199" t="n">
-        <v>0.0644553080201149</v>
+        <v>0.1157984286546707</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8650541305541992</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.5132195353507996</v>
       </c>
       <c r="W200" t="n">
-        <v>0.09927971661090851</v>
+        <v>0.1237875819206238</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8827910423278809</v>
       </c>
       <c r="V201" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.9331374168395996</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2534492015838623</v>
+        <v>0.002534757368266582</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5699949264526367</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.4776991009712219</v>
       </c>
       <c r="W202" t="n">
-        <v>0.000509965349920094</v>
+        <v>0.008518519811332226</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5083200931549072</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4734708666801453</v>
       </c>
       <c r="W203" t="n">
-        <v>0.002576644299551845</v>
+        <v>0.00121446861885488</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.523759126663208</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.9414022564888</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0103614367544651</v>
+        <v>0.1744257807731628</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5118520259857178</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.9603695273399353</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01269199140369892</v>
+        <v>0.201167955994606</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5180840492248535</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.530508816242218</v>
       </c>
       <c r="W206" t="n">
-        <v>0.001258688163943589</v>
+        <v>0.000154374836711213</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173430442810059</v>
       </c>
       <c r="V207" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4868307709693909</v>
       </c>
       <c r="W207" t="n">
-        <v>0.08964512497186661</v>
+        <v>0.0009309988236054778</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5155980587005615</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4692381620407104</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02001007273793221</v>
+        <v>0.002149240113794804</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.51692795753479</v>
       </c>
       <c r="V209" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.8823426961898804</v>
       </c>
       <c r="W209" t="n">
-        <v>0.04612055420875549</v>
+        <v>0.133527934551239</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5169570446014404</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4842851758003235</v>
       </c>
       <c r="W210" t="n">
-        <v>0.002682068152353168</v>
+        <v>0.001067450968548656</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5207931995391846</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4686885476112366</v>
       </c>
       <c r="W211" t="n">
-        <v>0.002547136042267084</v>
+        <v>0.002714894711971283</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5211551189422607</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.8925867676734924</v>
       </c>
       <c r="W212" t="n">
-        <v>0.08736903220415115</v>
+        <v>0.1379614770412445</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5717520713806152</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5700389742851257</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0185313131660223</v>
+        <v>2.934701569756726e-06</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5180099010467529</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5590032935142517</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02754642628133297</v>
+        <v>0.001680458197370172</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5209879875183105</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.4780312180519104</v>
       </c>
       <c r="W215" t="n">
-        <v>0.003933637868613005</v>
+        <v>0.001845284015871584</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5132570266723633</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4683411717414856</v>
       </c>
       <c r="W216" t="n">
-        <v>0.001463507069274783</v>
+        <v>0.002017433987930417</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5181879997253418</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.5392683744430542</v>
       </c>
       <c r="W217" t="n">
-        <v>0.001184897380881011</v>
+        <v>0.0004443821962922812</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5422689914703369</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.92741858959198</v>
       </c>
       <c r="W218" t="n">
-        <v>0.00575165543705225</v>
+        <v>0.1483402103185654</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5216789245605469</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.866618812084198</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02069264277815819</v>
+        <v>0.1189835295081139</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5229740142822266</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5746473073959351</v>
       </c>
       <c r="W220" t="n">
-        <v>0.002210324397310615</v>
+        <v>0.002670129295438528</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5183291435241699</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.5584632158279419</v>
       </c>
       <c r="W221" t="n">
-        <v>0.000519238063134253</v>
+        <v>0.001610743813216686</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3868288993835449</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.5303592681884766</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01435934659093618</v>
+        <v>0.02060096710920334</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3892269134521484</v>
       </c>
       <c r="V223" t="n">
-        <v>0.618610143661499</v>
+        <v>0.8954836130142212</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0526166670024395</v>
+        <v>0.2562958598136902</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4478988647460938</v>
       </c>
       <c r="V224" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4828436970710754</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0001071944643626921</v>
+        <v>0.001221141312271357</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3881099224090576</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5305416584014893</v>
       </c>
       <c r="W225" t="n">
-        <v>0.002295799786224961</v>
+        <v>0.020286800339818</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3939759731292725</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5248270630836487</v>
       </c>
       <c r="W226" t="n">
-        <v>0.00176712276879698</v>
+        <v>0.01712200790643692</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3871378898620605</v>
       </c>
       <c r="V227" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.5412636995315552</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1221080496907234</v>
+        <v>0.02375476434826851</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3866500854492188</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5760172605514526</v>
       </c>
       <c r="W228" t="n">
-        <v>0.09084875136613846</v>
+        <v>0.03585992753505707</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4029650688171387</v>
       </c>
       <c r="V229" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4852994680404663</v>
       </c>
       <c r="W229" t="n">
-        <v>0.005150566808879375</v>
+        <v>0.00677895313128829</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3855400085449219</v>
       </c>
       <c r="V230" t="n">
-        <v>0.505409836769104</v>
+        <v>0.9421250820159912</v>
       </c>
       <c r="W230" t="n">
-        <v>0.01436877530068159</v>
+        <v>0.3097869455814362</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3938031196594238</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.979736864566803</v>
       </c>
       <c r="W231" t="n">
-        <v>0.006845410913228989</v>
+        <v>0.3433183431625366</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3945381641387939</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.9528847336769104</v>
       </c>
       <c r="W232" t="n">
-        <v>0.02473068982362747</v>
+        <v>0.3117508888244629</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3987751007080078</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.9883577823638916</v>
       </c>
       <c r="W233" t="n">
-        <v>0.001387465745210648</v>
+        <v>0.3476077318191528</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3940908908843994</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.910478949546814</v>
       </c>
       <c r="W234" t="n">
-        <v>0.08469217270612717</v>
+        <v>0.2666566371917725</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3873729705810547</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.9434528946876526</v>
       </c>
       <c r="W235" t="n">
-        <v>0.006958987098187208</v>
+        <v>0.3092248737812042</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4232368469238281</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.8919311165809631</v>
       </c>
       <c r="W236" t="n">
-        <v>0.001062848488800228</v>
+        <v>0.2196743190288544</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3913278579711914</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4750828146934509</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001997761894017458</v>
+        <v>0.007014892995357513</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3910040855407715</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.4938930869102478</v>
       </c>
       <c r="W238" t="n">
-        <v>0.05508732050657272</v>
+        <v>0.01058614626526833</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3917660713195801</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.5915573835372925</v>
       </c>
       <c r="W239" t="n">
-        <v>0.07091414928436279</v>
+        <v>0.03991656750440598</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3873550891876221</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5677184462547302</v>
       </c>
       <c r="W240" t="n">
-        <v>0.002341476734727621</v>
+        <v>0.03253094106912613</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.386228084564209</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5500105619430542</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06629547476768494</v>
+        <v>0.02682469971477985</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9340600967407227</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4886733293533325</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3086102902889252</v>
+        <v>0.1983693689107895</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9019050598144531</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.8956355452537537</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1213536560535431</v>
+        <v>3.930681123165414e-05</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8834450244903564</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5307111144065857</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1456694006919861</v>
+        <v>0.1244212090969086</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8760960102081299</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.8797475099563599</v>
       </c>
       <c r="W245" t="n">
-        <v>0.169416144490242</v>
+        <v>1.333345062448643e-05</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9240548610687256</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4722558856010437</v>
       </c>
       <c r="W246" t="n">
-        <v>0.05725302919745445</v>
+        <v>0.204122319817543</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8751180171966553</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.8838237524032593</v>
       </c>
       <c r="W247" t="n">
-        <v>0.05122744664549828</v>
+        <v>7.578982331324369e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8558840751647949</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4847504496574402</v>
       </c>
       <c r="W248" t="n">
-        <v>0.03803041204810143</v>
+        <v>0.1377401649951935</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8596539497375488</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.488522469997406</v>
       </c>
       <c r="W249" t="n">
-        <v>0.163074865937233</v>
+        <v>0.1377385705709457</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9199659824371338</v>
       </c>
       <c r="V250" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.5193679928779602</v>
       </c>
       <c r="W250" t="n">
-        <v>0.01167459413409233</v>
+        <v>0.1604787558317184</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8935949802398682</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.9848031997680664</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2618201971054077</v>
+        <v>0.008318939246237278</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8824079036712646</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.8824721574783325</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1992698907852173</v>
+        <v>4.128551722715201e-09</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8694038391113281</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4963374137878418</v>
       </c>
       <c r="W253" t="n">
-        <v>0.16950523853302</v>
+        <v>0.1391785591840744</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9344220161437988</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4946340918540955</v>
       </c>
       <c r="W254" t="n">
-        <v>0.09526711702346802</v>
+        <v>0.1934134215116501</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>1.058418035507202</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4683515429496765</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2567357420921326</v>
+        <v>0.3481784760951996</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.867372989654541</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.4985224604606628</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1860604286193848</v>
+        <v>0.1360507160425186</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8716740608215332</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.8791614770889282</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1735649406909943</v>
+        <v>5.606140257441439e-05</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9206409454345703</v>
       </c>
       <c r="V258" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5746009349822998</v>
       </c>
       <c r="W258" t="n">
-        <v>0.03491753712296486</v>
+        <v>0.1197436898946762</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8685529232025146</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5303986072540283</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1869878619909286</v>
+        <v>0.1143483445048332</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8556249141693115</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5396866202354431</v>
       </c>
       <c r="W260" t="n">
-        <v>0.03818931430578232</v>
+        <v>0.09981700778007507</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8735740184783936</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4687007665634155</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1731046289205551</v>
+        <v>0.1639223545789719</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5683920383453369</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.573941171169281</v>
       </c>
       <c r="W262" t="n">
-        <v>0.009601632133126259</v>
+        <v>3.079287489526905e-05</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5272350311279297</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4776108860969543</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01358222775161266</v>
+        <v>0.002462555654346943</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5149078369140625</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.883470892906189</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01269287802278996</v>
+        <v>0.1358387321233749</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5264160633087158</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4947183132171631</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0008229234954342246</v>
+        <v>0.001004747347906232</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5210471153259277</v>
       </c>
       <c r="V266" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.9349913001060486</v>
       </c>
       <c r="W266" t="n">
-        <v>0.09128014743328094</v>
+        <v>0.1713497936725616</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.549943208694458</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.8850640654563904</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02881653048098087</v>
+        <v>0.1123059913516045</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5225179195404053</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5309942364692688</v>
       </c>
       <c r="W268" t="n">
-        <v>0.007528298068791628</v>
+        <v>7.184794958448038e-05</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5225930213928223</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.9204979538917542</v>
       </c>
       <c r="W269" t="n">
-        <v>0.002930994611233473</v>
+        <v>0.1583283394575119</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5107958316802979</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4960390329360962</v>
       </c>
       <c r="W270" t="n">
-        <v>0.001510013360530138</v>
+        <v>0.0002177631104132161</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5195698738098145</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5248884558677673</v>
       </c>
       <c r="W271" t="n">
-        <v>0.006932783406227827</v>
+        <v>2.828731521731243e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5319468975067139</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.570141077041626</v>
       </c>
       <c r="W272" t="n">
-        <v>0.009229111485183239</v>
+        <v>0.001458795391954482</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5238940715789795</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.9246553778648376</v>
       </c>
       <c r="W273" t="n">
-        <v>0.007769150193780661</v>
+        <v>0.1606096178293228</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5282120704650879</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4966132044792175</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0005981437861919403</v>
+        <v>0.0009984882781282067</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5198049545288086</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5541465282440186</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0109733697026968</v>
+        <v>0.001179343671537936</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.520374059677124</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5400915145874023</v>
       </c>
       <c r="W276" t="n">
-        <v>0.004256696440279484</v>
+        <v>0.0003887780185323209</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5278160572052002</v>
       </c>
       <c r="V277" t="n">
-        <v>0.56879723072052</v>
+        <v>0.5304567813873291</v>
       </c>
       <c r="W277" t="n">
-        <v>0.001679456559941173</v>
+        <v>6.973424206080381e-06</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5759041309356689</v>
       </c>
       <c r="V278" t="n">
-        <v>0.436014860868454</v>
+        <v>0.5134130120277405</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01956900767982006</v>
+        <v>0.003905139863491058</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5332629680633545</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.9274734854698181</v>
       </c>
       <c r="W279" t="n">
-        <v>0.007272485643625259</v>
+        <v>0.1554019302129745</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5204870700836182</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5440526008605957</v>
       </c>
       <c r="W280" t="n">
-        <v>0.08756308257579803</v>
+        <v>0.0005553342634811997</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5129299163818359</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4756556749343872</v>
       </c>
       <c r="W281" t="n">
-        <v>0.00139882299117744</v>
+        <v>0.001389369019307196</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.405580997467041</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5321182608604431</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0266016498208046</v>
+        <v>0.0160116795450449</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4022738933563232</v>
       </c>
       <c r="V283" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5303818583488464</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1236376836895943</v>
+        <v>0.01641165092587471</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.40081787109375</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5590813755989075</v>
       </c>
       <c r="W284" t="n">
-        <v>0.05063911899924278</v>
+        <v>0.02504733763635159</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4482460021972656</v>
       </c>
       <c r="V285" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5310354232788086</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0005259979516267776</v>
+        <v>0.006854088045656681</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3977510929107666</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.8830626606941223</v>
       </c>
       <c r="W286" t="n">
-        <v>0.001976535189896822</v>
+        <v>0.2355273216962814</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4005110263824463</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4802789688110352</v>
       </c>
       <c r="W287" t="n">
-        <v>0.003274941584095359</v>
+        <v>0.006362924817949533</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3895740509033203</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4710090160369873</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1841671466827393</v>
+        <v>0.006631653755903244</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4091858863830566</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5375657677650452</v>
       </c>
       <c r="W289" t="n">
-        <v>0.05485667660832405</v>
+        <v>0.01648139394819736</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.407181978225708</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.4757992029190063</v>
       </c>
       <c r="W290" t="n">
-        <v>0.07072120159864426</v>
+        <v>0.004708323627710342</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3979640007019043</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.9437788128852844</v>
       </c>
       <c r="W291" t="n">
-        <v>6.184012454468757e-05</v>
+        <v>0.2979138195514679</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3985989093780518</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5383971333503723</v>
       </c>
       <c r="W292" t="n">
-        <v>0.001370621495880187</v>
+        <v>0.01954354345798492</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3950169086456299</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.8764123320579529</v>
       </c>
       <c r="W293" t="n">
-        <v>0.02501152269542217</v>
+        <v>0.2317415475845337</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3943140506744385</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.8797576427459717</v>
       </c>
       <c r="W294" t="n">
-        <v>0.004879280459135771</v>
+        <v>0.2356554865837097</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3939938545227051</v>
       </c>
       <c r="V295" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5895450115203857</v>
       </c>
       <c r="W295" t="n">
-        <v>0.05303405970335007</v>
+        <v>0.03824025392532349</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4487309455871582</v>
       </c>
       <c r="V296" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5604552626609802</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1319445967674255</v>
+        <v>0.01248232275247574</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.39068603515625</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5760499238967896</v>
       </c>
       <c r="W297" t="n">
-        <v>0.006406135857105255</v>
+        <v>0.03435977175831795</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4058229923248291</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5759960412979126</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0009332153131254017</v>
+        <v>0.02895886637270451</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3924829959869385</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.4682945609092712</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01233283244073391</v>
+        <v>0.005747393239289522</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3964340686798096</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.5305744409561157</v>
       </c>
       <c r="W300" t="n">
-        <v>0.008258969523012638</v>
+        <v>0.01799364015460014</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3985171318054199</v>
       </c>
       <c r="V301" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4873331189155579</v>
       </c>
       <c r="W301" t="n">
-        <v>0.1215702742338181</v>
+        <v>0.007888279855251312</v>
       </c>
     </row>
     <row r="302" spans="1:23">
